--- a/medicine/Premiers secours et secourisme/Gabriel_de_Mun/Gabriel_de_Mun.xlsx
+++ b/medicine/Premiers secours et secourisme/Gabriel_de_Mun/Gabriel_de_Mun.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Benoît-Joseph-Bertrand-Marie-Gabriel, marquis de Mun (12 août 1883, Lumigny - 18 décembre 1952, Paris 16e[1]) est un historien français. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Benoît-Joseph-Bertrand-Marie-Gabriel, marquis de Mun (12 août 1883, Lumigny - 18 décembre 1952, Paris 16e) est un historien français. 
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Petit-fils du prince Marc de Beauvau-Craon et neveu d'Albert de Mun, il obtient sa licence ès lettres et sort diplômé archiviste-paléographe de l'École des chartes.
 Pendant la Première Guerre mondiale, il sert comme officier de liaison auprès de l'armée britannique, chef de bureau de l'État-major français et attaché au grand quartier général britannique.
@@ -545,7 +559,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Deux ambassadeurs à Constantinople 1604-1610 (Plon-Nourrit, 1902)
 Richelieu et la maison de Savoie : l'ambassade de Particelli d'Hémery en Piémont (Plon-Nourrit, 1907), prix Thérouanne de l'Académie française en 1909
